--- a/areaLog.xlsx
+++ b/areaLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,10 +544,8 @@
       <c r="A7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20210825</t>
-        </is>
+      <c r="B7" t="n">
+        <v>20210825</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -557,6 +555,80 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>영화동</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20210827</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>춘천시</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>후평22동</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20210827</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>춘천시</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>후평동</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20210827</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>수원시 장안구</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>영화동</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20210827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>춘천시</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>후평동</t>
         </is>
       </c>
     </row>
